--- a/Code/Results/Cases/Case_2_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.16667021185275</v>
+        <v>13.50883376864503</v>
       </c>
       <c r="C2">
-        <v>11.10636027081995</v>
+        <v>12.35815665676973</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.96815476802621</v>
+        <v>17.16067776260198</v>
       </c>
       <c r="F2">
-        <v>23.82614563412113</v>
+        <v>34.81067705249825</v>
       </c>
       <c r="G2">
-        <v>19.75085515367331</v>
+        <v>25.69717249075682</v>
       </c>
       <c r="H2">
-        <v>8.011994169919156</v>
+        <v>13.53424162797267</v>
       </c>
       <c r="I2">
-        <v>12.80246465806192</v>
+        <v>21.65866818436182</v>
       </c>
       <c r="J2">
-        <v>5.225921180542643</v>
+        <v>7.299823904988677</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.212171897060442</v>
+        <v>12.9688422575231</v>
       </c>
       <c r="M2">
-        <v>12.34348506556502</v>
+        <v>15.92527140931689</v>
       </c>
       <c r="N2">
-        <v>12.27932829561484</v>
+        <v>17.84394513949599</v>
       </c>
       <c r="O2">
-        <v>12.86214250616135</v>
+        <v>20.1894045527674</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.96912161508642</v>
+        <v>13.06193415403822</v>
       </c>
       <c r="C3">
-        <v>10.84659412400768</v>
+        <v>12.2820439440475</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.00825839389768</v>
+        <v>17.20220723113597</v>
       </c>
       <c r="F3">
-        <v>23.38144321894818</v>
+        <v>34.85120485821498</v>
       </c>
       <c r="G3">
-        <v>19.23590189963053</v>
+        <v>25.71724426280887</v>
       </c>
       <c r="H3">
-        <v>8.039612504759706</v>
+        <v>13.57460850032949</v>
       </c>
       <c r="I3">
-        <v>12.95770520988746</v>
+        <v>21.75191486764657</v>
       </c>
       <c r="J3">
-        <v>5.156449413723731</v>
+        <v>7.281398475968065</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.053760118197131</v>
+        <v>12.96580348732661</v>
       </c>
       <c r="M3">
-        <v>11.78835183257778</v>
+        <v>15.82845165467315</v>
       </c>
       <c r="N3">
-        <v>12.3747775294467</v>
+        <v>17.88285341267488</v>
       </c>
       <c r="O3">
-        <v>12.7905177165084</v>
+        <v>20.24752042497905</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.18912939705888</v>
+        <v>12.78067532156622</v>
       </c>
       <c r="C4">
-        <v>10.68385120747101</v>
+        <v>12.23493026959579</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.03709739615895</v>
+        <v>17.2296987749856</v>
       </c>
       <c r="F4">
-        <v>23.12286441027056</v>
+        <v>34.88398574801081</v>
       </c>
       <c r="G4">
-        <v>18.93593076970109</v>
+        <v>25.7381694116998</v>
       </c>
       <c r="H4">
-        <v>8.061691529800644</v>
+        <v>13.60151559612721</v>
       </c>
       <c r="I4">
-        <v>13.06272180915948</v>
+        <v>21.8131306562745</v>
       </c>
       <c r="J4">
-        <v>5.113135149293051</v>
+        <v>7.269905538331855</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.957843884425435</v>
+        <v>12.96549481223798</v>
       </c>
       <c r="M4">
-        <v>11.43661162854041</v>
+        <v>15.77052344032688</v>
       </c>
       <c r="N4">
-        <v>12.43672664177778</v>
+        <v>17.90839473683354</v>
       </c>
       <c r="O4">
-        <v>12.75762642229683</v>
+        <v>20.2875624634345</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.85999548493856</v>
+        <v>12.66450285316686</v>
       </c>
       <c r="C5">
-        <v>10.61677871788769</v>
+        <v>12.21564405881936</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.04988827988751</v>
+        <v>17.24140338453747</v>
       </c>
       <c r="F5">
-        <v>23.02119616023384</v>
+        <v>34.89932856745526</v>
       </c>
       <c r="G5">
-        <v>18.81787345419458</v>
+        <v>25.74885465837759</v>
       </c>
       <c r="H5">
-        <v>8.071934930658822</v>
+        <v>13.61301392688847</v>
       </c>
       <c r="I5">
-        <v>13.10786080047116</v>
+        <v>21.83907271833163</v>
       </c>
       <c r="J5">
-        <v>5.095327333630585</v>
+        <v>7.265177593837375</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.919139895082153</v>
+        <v>12.96576214204716</v>
       </c>
       <c r="M5">
-        <v>11.29072548301622</v>
+        <v>15.7473168106817</v>
       </c>
       <c r="N5">
-        <v>12.46280005702408</v>
+        <v>17.91921905637551</v>
       </c>
       <c r="O5">
-        <v>12.74693325849804</v>
+        <v>20.30497393275182</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.80466053132052</v>
+        <v>12.64512364815934</v>
       </c>
       <c r="C6">
-        <v>10.60559778214632</v>
+        <v>12.21243659347056</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.05207432263946</v>
+        <v>17.24337723816473</v>
       </c>
       <c r="F6">
-        <v>23.00453965610184</v>
+        <v>34.90199602667823</v>
       </c>
       <c r="G6">
-        <v>18.79852555662734</v>
+        <v>25.75075911045253</v>
       </c>
       <c r="H6">
-        <v>8.073709887804139</v>
+        <v>13.61495543496108</v>
       </c>
       <c r="I6">
-        <v>13.11549499643372</v>
+        <v>21.8434405385737</v>
       </c>
       <c r="J6">
-        <v>5.092361138826697</v>
+        <v>7.264389855992571</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.912737503808899</v>
+        <v>12.9658303185499</v>
       </c>
       <c r="M6">
-        <v>11.26635327187384</v>
+        <v>15.74348800194747</v>
       </c>
       <c r="N6">
-        <v>12.46717924572135</v>
+        <v>17.92104157514764</v>
       </c>
       <c r="O6">
-        <v>12.74531898995958</v>
+        <v>20.30793110847435</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.18473631192157</v>
+        <v>12.77911465139433</v>
       </c>
       <c r="C7">
-        <v>10.68294960945797</v>
+        <v>12.23467050998003</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.03726572029604</v>
+        <v>17.22985459574513</v>
       </c>
       <c r="F7">
-        <v>23.12147819859207</v>
+        <v>34.8841846344313</v>
       </c>
       <c r="G7">
-        <v>18.93432154121592</v>
+        <v>25.7383047860618</v>
       </c>
       <c r="H7">
-        <v>8.061824685481145</v>
+        <v>13.60166850669492</v>
       </c>
       <c r="I7">
-        <v>13.06332120022499</v>
+        <v>21.81347648685171</v>
       </c>
       <c r="J7">
-        <v>5.112895610614689</v>
+        <v>7.269841954802766</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.957320302281108</v>
+        <v>12.96549682384777</v>
       </c>
       <c r="M7">
-        <v>11.43465420973627</v>
+        <v>15.77020882699273</v>
       </c>
       <c r="N7">
-        <v>12.43707493684513</v>
+        <v>17.90853903194004</v>
       </c>
       <c r="O7">
-        <v>12.75747134305155</v>
+        <v>20.28779285373207</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.76300496716846</v>
+        <v>13.3562629321934</v>
       </c>
       <c r="C8">
-        <v>11.01750288420688</v>
+        <v>12.33199705133613</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.981094758693258</v>
+        <v>17.17458399132472</v>
       </c>
       <c r="F8">
-        <v>23.66985227653831</v>
+        <v>34.82301149891057</v>
       </c>
       <c r="G8">
-        <v>19.57000339573714</v>
+        <v>25.7023057251315</v>
       </c>
       <c r="H8">
-        <v>8.020428735620749</v>
+        <v>13.54771975083211</v>
       </c>
       <c r="I8">
-        <v>12.85391988695672</v>
+        <v>21.68999725600446</v>
       </c>
       <c r="J8">
-        <v>5.202109065998199</v>
+        <v>7.293508519633525</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.157297479776403</v>
+        <v>12.9674722741784</v>
       </c>
       <c r="M8">
-        <v>12.15443925207793</v>
+        <v>15.89158324065597</v>
       </c>
       <c r="N8">
-        <v>12.31153788101362</v>
+        <v>17.85701839061201</v>
       </c>
       <c r="O8">
-        <v>12.83510037807957</v>
+        <v>20.20853709845094</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.50542031387286</v>
+        <v>14.4269779638179</v>
       </c>
       <c r="C9">
-        <v>11.64526425564659</v>
+        <v>12.51946245874934</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.905359312378716</v>
+        <v>17.0819792143693</v>
       </c>
       <c r="F9">
-        <v>24.85659318582267</v>
+        <v>34.76573895320827</v>
       </c>
       <c r="G9">
-        <v>20.93984069003232</v>
+        <v>25.70009777052061</v>
       </c>
       <c r="H9">
-        <v>7.981785711238489</v>
+        <v>13.45876256873764</v>
       </c>
       <c r="I9">
-        <v>12.52478847094222</v>
+        <v>21.47929694378577</v>
       </c>
       <c r="J9">
-        <v>5.37146715489938</v>
+        <v>7.338463575158219</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.558271270820276</v>
+        <v>12.98362918491744</v>
       </c>
       <c r="M9">
-        <v>13.47260758260494</v>
+        <v>16.14086382934804</v>
       </c>
       <c r="N9">
-        <v>12.09247113360199</v>
+        <v>17.76905739829003</v>
       </c>
       <c r="O9">
-        <v>13.07845894458412</v>
+        <v>20.08778578869212</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.30833562759916</v>
+        <v>15.16853337769867</v>
       </c>
       <c r="C10">
-        <v>12.08613016305531</v>
+        <v>12.65462676334002</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.872058359059636</v>
+        <v>17.02352555546686</v>
       </c>
       <c r="F10">
-        <v>25.79128380255384</v>
+        <v>34.76187766127521</v>
       </c>
       <c r="G10">
-        <v>22.0137194198705</v>
+        <v>25.74025522160742</v>
       </c>
       <c r="H10">
-        <v>7.981964914559321</v>
+        <v>13.40367140692313</v>
       </c>
       <c r="I10">
-        <v>12.3393832849072</v>
+        <v>21.34367115665822</v>
       </c>
       <c r="J10">
-        <v>5.492020192937151</v>
+        <v>7.370566831144679</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.855789250320386</v>
+        <v>13.00288563076741</v>
       </c>
       <c r="M10">
-        <v>14.37653155484753</v>
+        <v>16.32979085674891</v>
       </c>
       <c r="N10">
-        <v>11.94894051636778</v>
+        <v>17.71235591248038</v>
       </c>
       <c r="O10">
-        <v>13.31667134411396</v>
+        <v>20.02031393444286</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.08318783632678</v>
+        <v>15.49470643054423</v>
       </c>
       <c r="C11">
-        <v>12.28170585124439</v>
+        <v>12.71545352456103</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.862061685706259</v>
+        <v>16.99900641917653</v>
       </c>
       <c r="F11">
-        <v>26.22896394772627</v>
+        <v>34.76840301587701</v>
       </c>
       <c r="G11">
-        <v>22.51524750390653</v>
+        <v>25.76757992798031</v>
       </c>
       <c r="H11">
-        <v>7.988825487896429</v>
+        <v>13.38083840382118</v>
       </c>
       <c r="I11">
-        <v>12.26887772329519</v>
+        <v>21.28613768783227</v>
       </c>
       <c r="J11">
-        <v>5.545929029418016</v>
+        <v>7.38496232737272</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.991283916442761</v>
+        <v>13.01322542205912</v>
       </c>
       <c r="M11">
-        <v>14.77254253501931</v>
+        <v>16.41675508501957</v>
       </c>
       <c r="N11">
-        <v>11.88764764919763</v>
+        <v>17.68827214254797</v>
       </c>
       <c r="O11">
-        <v>13.43863146978788</v>
+        <v>19.99425246714944</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.37014578403165</v>
+        <v>15.61651581073384</v>
       </c>
       <c r="C12">
-        <v>12.35500821683427</v>
+        <v>12.7383831524322</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.859042458883833</v>
+        <v>16.99001896089966</v>
       </c>
       <c r="F12">
-        <v>26.39639833963351</v>
+        <v>34.77206200738737</v>
       </c>
       <c r="G12">
-        <v>22.70690302024451</v>
+        <v>25.77922520872951</v>
       </c>
       <c r="H12">
-        <v>7.9924458588086</v>
+        <v>13.37251259799824</v>
       </c>
       <c r="I12">
-        <v>12.24431026478434</v>
+        <v>21.26495032742755</v>
       </c>
       <c r="J12">
-        <v>5.566201595615395</v>
+        <v>7.39038280028179</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.042576107666445</v>
+        <v>13.017365725376</v>
       </c>
       <c r="M12">
-        <v>14.92024127340059</v>
+        <v>16.44981237060573</v>
       </c>
       <c r="N12">
-        <v>11.86503348386139</v>
+        <v>17.6793974522504</v>
       </c>
       <c r="O12">
-        <v>13.48681661577618</v>
+        <v>19.98505110217704</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.30863078772441</v>
+        <v>15.59035928974142</v>
       </c>
       <c r="C13">
-        <v>12.33925557439385</v>
+        <v>12.73344962473109</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.859658212323442</v>
+        <v>16.99194135168143</v>
       </c>
       <c r="F13">
-        <v>26.36026455745048</v>
+        <v>34.77122119854661</v>
       </c>
       <c r="G13">
-        <v>22.66555130954312</v>
+        <v>25.77665954821263</v>
       </c>
       <c r="H13">
-        <v>7.991619915048537</v>
+        <v>13.37429145032887</v>
       </c>
       <c r="I13">
-        <v>12.24950417129581</v>
+        <v>21.26948673952734</v>
       </c>
       <c r="J13">
-        <v>5.561841947680213</v>
+        <v>7.389216786876984</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.031530745686748</v>
+        <v>13.0164640754791</v>
       </c>
       <c r="M13">
-        <v>14.88853338962553</v>
+        <v>16.44268763119969</v>
       </c>
       <c r="N13">
-        <v>11.86987698408172</v>
+        <v>17.68129787456188</v>
       </c>
       <c r="O13">
-        <v>13.47634939179312</v>
+        <v>19.98700306956143</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.10692523513652</v>
+        <v>15.50476246821432</v>
       </c>
       <c r="C14">
-        <v>12.28775189675491</v>
+        <v>12.71734209863293</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.861797787069825</v>
+        <v>16.99826105800657</v>
       </c>
       <c r="F14">
-        <v>26.24270548315952</v>
+        <v>34.76868025438174</v>
       </c>
       <c r="G14">
-        <v>22.53098102191758</v>
+        <v>25.76851200950805</v>
       </c>
       <c r="H14">
-        <v>7.989102573907767</v>
+        <v>13.38014700958039</v>
       </c>
       <c r="I14">
-        <v>12.26681298700247</v>
+        <v>21.28438257605506</v>
       </c>
       <c r="J14">
-        <v>5.547599744478311</v>
+        <v>7.385408894700027</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.995504302271003</v>
+        <v>13.01356155489018</v>
       </c>
       <c r="M14">
-        <v>14.78473952520725</v>
+        <v>16.41947232644566</v>
       </c>
       <c r="N14">
-        <v>11.88577509488222</v>
+        <v>17.68753710336657</v>
       </c>
       <c r="O14">
-        <v>13.44255533389361</v>
+        <v>19.99348207876176</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.98253483937617</v>
+        <v>15.4521071028616</v>
       </c>
       <c r="C15">
-        <v>12.25610452722015</v>
+        <v>12.7074619385327</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.863208895433209</v>
+        <v>17.00217077668663</v>
       </c>
       <c r="F15">
-        <v>26.17091488049688</v>
+        <v>34.76727846058348</v>
       </c>
       <c r="G15">
-        <v>22.44877533927503</v>
+        <v>25.76369028601982</v>
       </c>
       <c r="H15">
-        <v>7.987695194832034</v>
+        <v>13.3837754585587</v>
       </c>
       <c r="I15">
-        <v>12.27769705325129</v>
+        <v>21.29358477378574</v>
       </c>
       <c r="J15">
-        <v>5.538857332037012</v>
+        <v>7.383072416801546</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.973433790020124</v>
+        <v>13.01181288737269</v>
       </c>
       <c r="M15">
-        <v>14.72086615452309</v>
+        <v>16.40526804440582</v>
       </c>
       <c r="N15">
-        <v>11.8955914303431</v>
+        <v>17.69139074062588</v>
       </c>
       <c r="O15">
-        <v>13.42211742310662</v>
+        <v>19.997537634581</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.25679007462073</v>
+        <v>15.14698374018898</v>
       </c>
       <c r="C16">
-        <v>12.07324497470536</v>
+        <v>12.65063751796341</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.872817501937247</v>
+        <v>17.02516958397489</v>
       </c>
       <c r="F16">
-        <v>25.76292291221019</v>
+        <v>34.76161763511632</v>
       </c>
       <c r="G16">
-        <v>21.98119361410746</v>
+        <v>25.73865140306347</v>
       </c>
       <c r="H16">
-        <v>7.981657036640541</v>
+        <v>13.40520844742427</v>
       </c>
       <c r="I16">
-        <v>12.34428136311115</v>
+        <v>21.34751493480975</v>
       </c>
       <c r="J16">
-        <v>5.488477722597389</v>
+        <v>7.369621787728341</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.846934061350556</v>
+        <v>13.00224149604654</v>
       </c>
       <c r="M16">
-        <v>14.35033865403184</v>
+        <v>16.3241262886347</v>
       </c>
       <c r="N16">
-        <v>11.9530283864093</v>
+        <v>17.7139642028878</v>
       </c>
       <c r="O16">
-        <v>13.30897865869504</v>
+        <v>20.02211044884623</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.80000301750669</v>
+        <v>14.95686615347846</v>
       </c>
       <c r="C17">
-        <v>11.9597604527268</v>
+        <v>12.61560191567823</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.880049594515089</v>
+        <v>17.0398088672498</v>
       </c>
       <c r="F17">
-        <v>25.51575810519461</v>
+        <v>34.76026427502805</v>
       </c>
       <c r="G17">
-        <v>21.69758267600262</v>
+        <v>25.72560800372277</v>
       </c>
       <c r="H17">
-        <v>7.979722905218162</v>
+        <v>13.41892770065264</v>
       </c>
       <c r="I17">
-        <v>12.38877100786846</v>
+        <v>21.38166611870059</v>
       </c>
       <c r="J17">
-        <v>5.457327380218636</v>
+        <v>7.36131629846108</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.769341308120969</v>
+        <v>12.99677279080856</v>
       </c>
       <c r="M17">
-        <v>14.1190813972676</v>
+        <v>16.27459496745387</v>
       </c>
       <c r="N17">
-        <v>11.98930290571728</v>
+        <v>17.72824984538584</v>
       </c>
       <c r="O17">
-        <v>13.24308897146474</v>
+        <v>20.03837251780254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.53300379537716</v>
+        <v>14.84646989993783</v>
       </c>
       <c r="C18">
-        <v>11.8940209946929</v>
+        <v>12.59538877427103</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.884692692864943</v>
+        <v>17.0484240268184</v>
       </c>
       <c r="F18">
-        <v>25.3747765179992</v>
+        <v>34.7602656191593</v>
       </c>
       <c r="G18">
-        <v>21.53568975510465</v>
+        <v>25.71895863542617</v>
       </c>
       <c r="H18">
-        <v>7.979245658012954</v>
+        <v>13.42702837747652</v>
       </c>
       <c r="I18">
-        <v>12.41565364429616</v>
+        <v>21.40170081401468</v>
       </c>
       <c r="J18">
-        <v>5.439323295477296</v>
+        <v>7.356519631002318</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.724728495944147</v>
+        <v>12.99377619595276</v>
       </c>
       <c r="M18">
-        <v>13.9846423143745</v>
+        <v>16.24620316754034</v>
       </c>
       <c r="N18">
-        <v>12.01054218347141</v>
+        <v>17.73662755863191</v>
       </c>
       <c r="O18">
-        <v>13.20646833265711</v>
+        <v>20.04816192024679</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.44186793689304</v>
+        <v>14.80891527318288</v>
       </c>
       <c r="C19">
-        <v>11.87168404262293</v>
+        <v>12.58853465573112</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.886347021529243</v>
+        <v>17.05137448394526</v>
       </c>
       <c r="F19">
-        <v>25.32724854290676</v>
+        <v>34.76040007420968</v>
       </c>
       <c r="G19">
-        <v>21.48109152779181</v>
+        <v>25.71685385523968</v>
       </c>
       <c r="H19">
-        <v>7.979191721694284</v>
+        <v>13.42980714355907</v>
       </c>
       <c r="I19">
-        <v>12.42497358109918</v>
+        <v>21.40855149757166</v>
       </c>
       <c r="J19">
-        <v>5.433212678168052</v>
+        <v>7.354892225462048</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.709627413580398</v>
+        <v>12.99278723652363</v>
       </c>
       <c r="M19">
-        <v>13.93888126225504</v>
+        <v>16.23660753881501</v>
       </c>
       <c r="N19">
-        <v>12.01779725894411</v>
+        <v>17.73949177663589</v>
       </c>
       <c r="O19">
-        <v>13.19428708684712</v>
+        <v>20.05155125969492</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.84907006076296</v>
+        <v>14.97721347656447</v>
       </c>
       <c r="C20">
-        <v>11.97188964058992</v>
+        <v>12.61933795662772</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.879229514148928</v>
+        <v>17.03823030923304</v>
       </c>
       <c r="F20">
-        <v>25.54194772448659</v>
+        <v>34.76032765869495</v>
       </c>
       <c r="G20">
-        <v>21.72764697761077</v>
+        <v>25.7269082550289</v>
       </c>
       <c r="H20">
-        <v>7.979862710355228</v>
+        <v>13.41744555590647</v>
       </c>
       <c r="I20">
-        <v>12.38390014672819</v>
+        <v>21.37799010871938</v>
       </c>
       <c r="J20">
-        <v>5.460652471925906</v>
+        <v>7.362202463252761</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.777599770544668</v>
+        <v>12.9973395539616</v>
       </c>
       <c r="M20">
-        <v>14.14384732914645</v>
+        <v>16.27985774132236</v>
       </c>
       <c r="N20">
-        <v>11.98540245041036</v>
+        <v>17.72671245684336</v>
       </c>
       <c r="O20">
-        <v>13.24997048287721</v>
+        <v>20.03659626833191</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.16634598766877</v>
+        <v>15.52995134809223</v>
       </c>
       <c r="C21">
-        <v>12.30290065938019</v>
+        <v>12.7220761691011</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.861148340081487</v>
+        <v>16.99639673957689</v>
       </c>
       <c r="F21">
-        <v>26.2771902342798</v>
+        <v>34.76939437762464</v>
       </c>
       <c r="G21">
-        <v>22.57046143154602</v>
+        <v>25.77086995511099</v>
       </c>
       <c r="H21">
-        <v>7.989813849636196</v>
+        <v>13.37841838902555</v>
       </c>
       <c r="I21">
-        <v>12.26166995354364</v>
+        <v>21.27999103737391</v>
       </c>
       <c r="J21">
-        <v>5.551786924811084</v>
+        <v>7.386528207082479</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.006086889740599</v>
+        <v>13.01440801254169</v>
       </c>
       <c r="M21">
-        <v>14.81528823474783</v>
+        <v>16.42628797681332</v>
       </c>
       <c r="N21">
-        <v>11.88108908024119</v>
+        <v>17.68569783758594</v>
       </c>
       <c r="O21">
-        <v>13.45242680859185</v>
+        <v>19.99156090865864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.98962341672165</v>
+        <v>15.8812196063071</v>
       </c>
       <c r="C22">
-        <v>12.51480140721185</v>
+        <v>12.78861026374432</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.853809934539367</v>
+        <v>16.97078936025414</v>
       </c>
       <c r="F22">
-        <v>26.76754618944713</v>
+        <v>34.78224247841288</v>
       </c>
       <c r="G22">
-        <v>23.13136412834827</v>
+        <v>25.80716397621599</v>
       </c>
       <c r="H22">
-        <v>8.002299123710866</v>
+        <v>13.35478038539082</v>
       </c>
       <c r="I22">
-        <v>12.19428031360426</v>
+        <v>21.2194365636219</v>
       </c>
       <c r="J22">
-        <v>5.610520315496613</v>
+        <v>7.402246641242876</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.155303110241162</v>
+        <v>13.02687264872832</v>
       </c>
       <c r="M22">
-        <v>15.24090320753329</v>
+        <v>16.52271219279981</v>
       </c>
       <c r="N22">
-        <v>11.81639989347534</v>
+        <v>17.66032200773162</v>
       </c>
       <c r="O22">
-        <v>13.59642726179595</v>
+        <v>19.96601923486456</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.5536508537623</v>
+        <v>15.69468410967027</v>
       </c>
       <c r="C23">
-        <v>12.40212452134517</v>
+        <v>12.75315872159259</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.8573082582192</v>
+        <v>16.98429807304002</v>
       </c>
       <c r="F23">
-        <v>26.50496666232799</v>
+        <v>34.7747529983548</v>
       </c>
       <c r="G23">
-        <v>22.8311193386626</v>
+        <v>25.78710310215245</v>
       </c>
       <c r="H23">
-        <v>7.99507241386686</v>
+        <v>13.36722542200429</v>
       </c>
       <c r="I23">
-        <v>12.22905537456784</v>
+        <v>21.25143574699486</v>
       </c>
       <c r="J23">
-        <v>5.579251392429914</v>
+        <v>7.393874144377952</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.075686032674001</v>
+        <v>13.0201010345023</v>
       </c>
       <c r="M23">
-        <v>15.01497509632244</v>
+        <v>16.47118950535046</v>
       </c>
       <c r="N23">
-        <v>11.85059940319259</v>
+        <v>17.67373494860117</v>
       </c>
       <c r="O23">
-        <v>13.51848869667371</v>
+        <v>19.97929478465079</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.82690051669741</v>
+        <v>14.96801785513698</v>
       </c>
       <c r="C24">
-        <v>11.96640757547522</v>
+        <v>12.61764911206281</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.87959876288857</v>
+        <v>17.03894335591289</v>
       </c>
       <c r="F24">
-        <v>25.53010391146069</v>
+        <v>34.76029657494735</v>
       </c>
       <c r="G24">
-        <v>21.71405128719013</v>
+        <v>25.72631776512336</v>
       </c>
       <c r="H24">
-        <v>7.979797531074271</v>
+        <v>13.41811496915312</v>
       </c>
       <c r="I24">
-        <v>12.38609820908239</v>
+        <v>21.37965078464723</v>
       </c>
       <c r="J24">
-        <v>5.459149494339225</v>
+        <v>7.361801895776914</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.773866128263306</v>
+        <v>12.99708286091815</v>
       </c>
       <c r="M24">
-        <v>14.13265527446583</v>
+        <v>16.27747817671307</v>
       </c>
       <c r="N24">
-        <v>11.98716464995585</v>
+        <v>17.72740699710634</v>
       </c>
       <c r="O24">
-        <v>13.24685542984722</v>
+        <v>20.03739793988199</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.80096646399067</v>
+        <v>14.14472633733535</v>
       </c>
       <c r="C25">
-        <v>11.47880443720827</v>
+        <v>12.46916270655547</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.922024497065953</v>
+        <v>17.10534567641729</v>
       </c>
       <c r="F25">
-        <v>24.52412885745419</v>
+        <v>34.77451821680793</v>
       </c>
       <c r="G25">
-        <v>20.55684432123502</v>
+        <v>25.69335797387386</v>
       </c>
       <c r="H25">
-        <v>7.987415427132863</v>
+        <v>13.48102518523998</v>
       </c>
       <c r="I25">
-        <v>12.60443473911946</v>
+        <v>21.53293019728509</v>
       </c>
       <c r="J25">
-        <v>5.326299001968565</v>
+        <v>7.326461719972492</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.449111484108839</v>
+        <v>12.97795335533366</v>
       </c>
       <c r="M25">
-        <v>13.12687251063821</v>
+        <v>16.07233143282579</v>
       </c>
       <c r="N25">
-        <v>12.14874534103803</v>
+        <v>17.7914585453055</v>
       </c>
       <c r="O25">
-        <v>13.00244394857573</v>
+        <v>20.11672879338586</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.50883376864503</v>
+        <v>18.16667021185281</v>
       </c>
       <c r="C2">
-        <v>12.35815665676973</v>
+        <v>11.10636027081993</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.16067776260198</v>
+        <v>9.968154768026279</v>
       </c>
       <c r="F2">
-        <v>34.81067705249825</v>
+        <v>23.82614563412106</v>
       </c>
       <c r="G2">
-        <v>25.69717249075682</v>
+        <v>19.75085515367338</v>
       </c>
       <c r="H2">
-        <v>13.53424162797267</v>
+        <v>8.011994169918941</v>
       </c>
       <c r="I2">
-        <v>21.65866818436182</v>
+        <v>12.80246465806181</v>
       </c>
       <c r="J2">
-        <v>7.299823904988677</v>
+        <v>5.225921180542609</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.9688422575231</v>
+        <v>8.212171897060488</v>
       </c>
       <c r="M2">
-        <v>15.92527140931689</v>
+        <v>12.34348506556501</v>
       </c>
       <c r="N2">
-        <v>17.84394513949599</v>
+        <v>12.27932829561477</v>
       </c>
       <c r="O2">
-        <v>20.1894045527674</v>
+        <v>12.86214250616124</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.06193415403822</v>
+        <v>16.96912161508643</v>
       </c>
       <c r="C3">
-        <v>12.2820439440475</v>
+        <v>10.84659412400755</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.20220723113597</v>
+        <v>10.00825839389762</v>
       </c>
       <c r="F3">
-        <v>34.85120485821498</v>
+        <v>23.38144321894827</v>
       </c>
       <c r="G3">
-        <v>25.71724426280887</v>
+        <v>19.2359018996307</v>
       </c>
       <c r="H3">
-        <v>13.57460850032949</v>
+        <v>8.039612504759651</v>
       </c>
       <c r="I3">
-        <v>21.75191486764657</v>
+        <v>12.95770520988747</v>
       </c>
       <c r="J3">
-        <v>7.281398475968065</v>
+        <v>5.156449413723667</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.96580348732661</v>
+        <v>8.053760118197118</v>
       </c>
       <c r="M3">
-        <v>15.82845165467315</v>
+        <v>11.78835183257776</v>
       </c>
       <c r="N3">
-        <v>17.88285341267488</v>
+        <v>12.37477752944673</v>
       </c>
       <c r="O3">
-        <v>20.24752042497905</v>
+        <v>12.79051771650843</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.78067532156622</v>
+        <v>16.18912939705891</v>
       </c>
       <c r="C4">
-        <v>12.23493026959579</v>
+        <v>10.683851207471</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.2296987749856</v>
+        <v>10.03709739615894</v>
       </c>
       <c r="F4">
-        <v>34.88398574801081</v>
+        <v>23.12286441027056</v>
       </c>
       <c r="G4">
-        <v>25.7381694116998</v>
+        <v>18.93593076970105</v>
       </c>
       <c r="H4">
-        <v>13.60151559612721</v>
+        <v>8.061691529800644</v>
       </c>
       <c r="I4">
-        <v>21.8131306562745</v>
+        <v>13.06272180915949</v>
       </c>
       <c r="J4">
-        <v>7.269905538331855</v>
+        <v>5.113135149292983</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.96549481223798</v>
+        <v>7.957843884425428</v>
       </c>
       <c r="M4">
-        <v>15.77052344032688</v>
+        <v>11.4366116285404</v>
       </c>
       <c r="N4">
-        <v>17.90839473683354</v>
+        <v>12.43672664177778</v>
       </c>
       <c r="O4">
-        <v>20.2875624634345</v>
+        <v>12.75762642229681</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.66450285316686</v>
+        <v>15.85999548493857</v>
       </c>
       <c r="C5">
-        <v>12.21564405881936</v>
+        <v>10.61677871788755</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.24140338453747</v>
+        <v>10.04988827988752</v>
       </c>
       <c r="F5">
-        <v>34.89932856745526</v>
+        <v>23.02119616023399</v>
       </c>
       <c r="G5">
-        <v>25.74885465837759</v>
+        <v>18.81787345419475</v>
       </c>
       <c r="H5">
-        <v>13.61301392688847</v>
+        <v>8.071934930658882</v>
       </c>
       <c r="I5">
-        <v>21.83907271833163</v>
+        <v>13.10786080047126</v>
       </c>
       <c r="J5">
-        <v>7.265177593837375</v>
+        <v>5.095327333630554</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.96576214204716</v>
+        <v>7.91913989508212</v>
       </c>
       <c r="M5">
-        <v>15.7473168106817</v>
+        <v>11.29072548301624</v>
       </c>
       <c r="N5">
-        <v>17.91921905637551</v>
+        <v>12.46280005702414</v>
       </c>
       <c r="O5">
-        <v>20.30497393275182</v>
+        <v>12.74693325849818</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.64512364815934</v>
+        <v>15.80466053132051</v>
       </c>
       <c r="C6">
-        <v>12.21243659347056</v>
+        <v>10.60559778214642</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.24337723816473</v>
+        <v>10.0520743226394</v>
       </c>
       <c r="F6">
-        <v>34.90199602667823</v>
+        <v>23.0045396561019</v>
       </c>
       <c r="G6">
-        <v>25.75075911045253</v>
+        <v>18.79852555662726</v>
       </c>
       <c r="H6">
-        <v>13.61495543496108</v>
+        <v>8.073709887804199</v>
       </c>
       <c r="I6">
-        <v>21.8434405385737</v>
+        <v>13.11549499643374</v>
       </c>
       <c r="J6">
-        <v>7.264389855992571</v>
+        <v>5.092361138826503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.9658303185499</v>
+        <v>7.912737503808828</v>
       </c>
       <c r="M6">
-        <v>15.74348800194747</v>
+        <v>11.26635327187383</v>
       </c>
       <c r="N6">
-        <v>17.92104157514764</v>
+        <v>12.46717924572132</v>
       </c>
       <c r="O6">
-        <v>20.30793110847435</v>
+        <v>12.74531898995955</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.77911465139433</v>
+        <v>16.18473631192155</v>
       </c>
       <c r="C7">
-        <v>12.23467050998003</v>
+        <v>10.68294960945784</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.22985459574513</v>
+        <v>10.03726572029592</v>
       </c>
       <c r="F7">
-        <v>34.8841846344313</v>
+        <v>23.12147819859194</v>
       </c>
       <c r="G7">
-        <v>25.7383047860618</v>
+        <v>18.93432154121588</v>
       </c>
       <c r="H7">
-        <v>13.60166850669492</v>
+        <v>8.061824685481199</v>
       </c>
       <c r="I7">
-        <v>21.81347648685171</v>
+        <v>13.06332120022493</v>
       </c>
       <c r="J7">
-        <v>7.269841954802766</v>
+        <v>5.112895610614658</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.96549682384777</v>
+        <v>7.957320302281056</v>
       </c>
       <c r="M7">
-        <v>15.77020882699273</v>
+        <v>11.43465420973625</v>
       </c>
       <c r="N7">
-        <v>17.90853903194004</v>
+        <v>12.43707493684509</v>
       </c>
       <c r="O7">
-        <v>20.28779285373207</v>
+        <v>12.75747134305156</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.3562629321934</v>
+        <v>17.76300496716846</v>
       </c>
       <c r="C8">
-        <v>12.33199705133613</v>
+        <v>11.01750288420698</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.17458399132472</v>
+        <v>9.981094758693201</v>
       </c>
       <c r="F8">
-        <v>34.82301149891057</v>
+        <v>23.66985227653828</v>
       </c>
       <c r="G8">
-        <v>25.7023057251315</v>
+        <v>19.57000339573711</v>
       </c>
       <c r="H8">
-        <v>13.54771975083211</v>
+        <v>8.020428735620802</v>
       </c>
       <c r="I8">
-        <v>21.68999725600446</v>
+        <v>12.85391988695674</v>
       </c>
       <c r="J8">
-        <v>7.293508519633525</v>
+        <v>5.202109065998227</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.9674722741784</v>
+        <v>8.157297479776354</v>
       </c>
       <c r="M8">
-        <v>15.89158324065597</v>
+        <v>12.15443925207789</v>
       </c>
       <c r="N8">
-        <v>17.85701839061201</v>
+        <v>12.31153788101365</v>
       </c>
       <c r="O8">
-        <v>20.20853709845094</v>
+        <v>12.83510037807958</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.4269779638179</v>
+        <v>20.5054203138729</v>
       </c>
       <c r="C9">
-        <v>12.51946245874934</v>
+        <v>11.64526425564661</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.0819792143693</v>
+        <v>9.905359312378771</v>
       </c>
       <c r="F9">
-        <v>34.76573895320827</v>
+        <v>24.85659318582265</v>
       </c>
       <c r="G9">
-        <v>25.70009777052061</v>
+        <v>20.93984069003227</v>
       </c>
       <c r="H9">
-        <v>13.45876256873764</v>
+        <v>7.981785711238492</v>
       </c>
       <c r="I9">
-        <v>21.47929694378577</v>
+        <v>12.52478847094214</v>
       </c>
       <c r="J9">
-        <v>7.338463575158219</v>
+        <v>5.37146715489935</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.98362918491744</v>
+        <v>8.558271270820315</v>
       </c>
       <c r="M9">
-        <v>16.14086382934804</v>
+        <v>13.47260758260497</v>
       </c>
       <c r="N9">
-        <v>17.76905739829003</v>
+        <v>12.09247113360193</v>
       </c>
       <c r="O9">
-        <v>20.08778578869212</v>
+        <v>13.07845894458407</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.16853337769867</v>
+        <v>22.30833562759907</v>
       </c>
       <c r="C10">
-        <v>12.65462676334002</v>
+        <v>12.08613016305541</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.02352555546686</v>
+        <v>9.872058359059638</v>
       </c>
       <c r="F10">
-        <v>34.76187766127521</v>
+        <v>25.79128380255395</v>
       </c>
       <c r="G10">
-        <v>25.74025522160742</v>
+        <v>22.01371941987057</v>
       </c>
       <c r="H10">
-        <v>13.40367140692313</v>
+        <v>7.981964914559468</v>
       </c>
       <c r="I10">
-        <v>21.34367115665822</v>
+        <v>12.3393832849074</v>
       </c>
       <c r="J10">
-        <v>7.370566831144679</v>
+        <v>5.492020192937183</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.00288563076741</v>
+        <v>8.85578925032036</v>
       </c>
       <c r="M10">
-        <v>16.32979085674891</v>
+        <v>14.37653155484754</v>
       </c>
       <c r="N10">
-        <v>17.71235591248038</v>
+        <v>11.94894051636788</v>
       </c>
       <c r="O10">
-        <v>20.02031393444286</v>
+        <v>13.31667134411407</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.49470643054423</v>
+        <v>23.08318783632677</v>
       </c>
       <c r="C11">
-        <v>12.71545352456103</v>
+        <v>12.28170585124457</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.99900641917653</v>
+        <v>9.862061685706438</v>
       </c>
       <c r="F11">
-        <v>34.76840301587701</v>
+        <v>26.22896394772638</v>
       </c>
       <c r="G11">
-        <v>25.76757992798031</v>
+        <v>22.51524750390658</v>
       </c>
       <c r="H11">
-        <v>13.38083840382118</v>
+        <v>7.988825487896436</v>
       </c>
       <c r="I11">
-        <v>21.28613768783227</v>
+        <v>12.26887772329532</v>
       </c>
       <c r="J11">
-        <v>7.38496232737272</v>
+        <v>5.545929029418103</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.01322542205912</v>
+        <v>8.991283916442816</v>
       </c>
       <c r="M11">
-        <v>16.41675508501957</v>
+        <v>14.77254253501933</v>
       </c>
       <c r="N11">
-        <v>17.68827214254797</v>
+        <v>11.88764764919772</v>
       </c>
       <c r="O11">
-        <v>19.99425246714944</v>
+        <v>13.43863146978792</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.61651581073384</v>
+        <v>23.37014578403167</v>
       </c>
       <c r="C12">
-        <v>12.7383831524322</v>
+        <v>12.35500821683421</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.99001896089966</v>
+        <v>9.859042458883676</v>
       </c>
       <c r="F12">
-        <v>34.77206200738737</v>
+        <v>26.3963983396335</v>
       </c>
       <c r="G12">
-        <v>25.77922520872951</v>
+        <v>22.70690302024455</v>
       </c>
       <c r="H12">
-        <v>13.37251259799824</v>
+        <v>7.992445858808702</v>
       </c>
       <c r="I12">
-        <v>21.26495032742755</v>
+        <v>12.2443102647844</v>
       </c>
       <c r="J12">
-        <v>7.39038280028179</v>
+        <v>5.566201595615363</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.017365725376</v>
+        <v>9.042576107666354</v>
       </c>
       <c r="M12">
-        <v>16.44981237060573</v>
+        <v>14.92024127340056</v>
       </c>
       <c r="N12">
-        <v>17.6793974522504</v>
+        <v>11.86503348386142</v>
       </c>
       <c r="O12">
-        <v>19.98505110217704</v>
+        <v>13.48681661577622</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.59035928974142</v>
+        <v>23.30863078772439</v>
       </c>
       <c r="C13">
-        <v>12.73344962473109</v>
+        <v>12.33925557439366</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.99194135168143</v>
+        <v>9.859658212323435</v>
       </c>
       <c r="F13">
-        <v>34.77122119854661</v>
+        <v>26.3602645574505</v>
       </c>
       <c r="G13">
-        <v>25.77665954821263</v>
+        <v>22.66555130954318</v>
       </c>
       <c r="H13">
-        <v>13.37429145032887</v>
+        <v>7.991619915048584</v>
       </c>
       <c r="I13">
-        <v>21.26948673952734</v>
+        <v>12.24950417129584</v>
       </c>
       <c r="J13">
-        <v>7.389216786876984</v>
+        <v>5.561841947680239</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.0164640754791</v>
+        <v>9.031530745686741</v>
       </c>
       <c r="M13">
-        <v>16.44268763119969</v>
+        <v>14.88853338962553</v>
       </c>
       <c r="N13">
-        <v>17.68129787456188</v>
+        <v>11.86987698408172</v>
       </c>
       <c r="O13">
-        <v>19.98700306956143</v>
+        <v>13.47634939179317</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.50476246821432</v>
+        <v>23.10692523513656</v>
       </c>
       <c r="C14">
-        <v>12.71734209863293</v>
+        <v>12.28775189675478</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.99826105800657</v>
+        <v>9.861797787069888</v>
       </c>
       <c r="F14">
-        <v>34.76868025438174</v>
+        <v>26.24270548315956</v>
       </c>
       <c r="G14">
-        <v>25.76851200950805</v>
+        <v>22.5309810219176</v>
       </c>
       <c r="H14">
-        <v>13.38014700958039</v>
+        <v>7.989102573907723</v>
       </c>
       <c r="I14">
-        <v>21.28438257605506</v>
+        <v>12.26681298700238</v>
       </c>
       <c r="J14">
-        <v>7.385408894700027</v>
+        <v>5.547599744478219</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.01356155489018</v>
+        <v>8.995504302271055</v>
       </c>
       <c r="M14">
-        <v>16.41947232644566</v>
+        <v>14.78473952520727</v>
       </c>
       <c r="N14">
-        <v>17.68753710336657</v>
+        <v>11.88577509488218</v>
       </c>
       <c r="O14">
-        <v>19.99348207876176</v>
+        <v>13.44255533389356</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.4521071028616</v>
+        <v>22.98253483937615</v>
       </c>
       <c r="C15">
-        <v>12.7074619385327</v>
+        <v>12.25610452722016</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.00217077668663</v>
+        <v>9.863208895433319</v>
       </c>
       <c r="F15">
-        <v>34.76727846058348</v>
+        <v>26.17091488049696</v>
       </c>
       <c r="G15">
-        <v>25.76369028601982</v>
+        <v>22.44877533927504</v>
       </c>
       <c r="H15">
-        <v>13.3837754585587</v>
+        <v>7.987695194832122</v>
       </c>
       <c r="I15">
-        <v>21.29358477378574</v>
+        <v>12.27769705325132</v>
       </c>
       <c r="J15">
-        <v>7.383072416801546</v>
+        <v>5.538857332037042</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.01181288737269</v>
+        <v>8.9734337900202</v>
       </c>
       <c r="M15">
-        <v>16.40526804440582</v>
+        <v>14.72086615452311</v>
       </c>
       <c r="N15">
-        <v>17.69139074062588</v>
+        <v>11.8955914303431</v>
       </c>
       <c r="O15">
-        <v>19.997537634581</v>
+        <v>13.42211742310664</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.14698374018898</v>
+        <v>22.25679007462071</v>
       </c>
       <c r="C16">
-        <v>12.65063751796341</v>
+        <v>12.07324497470556</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.02516958397489</v>
+        <v>9.87281750193719</v>
       </c>
       <c r="F16">
-        <v>34.76161763511632</v>
+        <v>25.76292291221019</v>
       </c>
       <c r="G16">
-        <v>25.73865140306347</v>
+        <v>21.98119361410746</v>
       </c>
       <c r="H16">
-        <v>13.40520844742427</v>
+        <v>7.981657036640631</v>
       </c>
       <c r="I16">
-        <v>21.34751493480975</v>
+        <v>12.34428136311124</v>
       </c>
       <c r="J16">
-        <v>7.369621787728341</v>
+        <v>5.488477722597389</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.00224149604654</v>
+        <v>8.846934061350495</v>
       </c>
       <c r="M16">
-        <v>16.3241262886347</v>
+        <v>14.35033865403184</v>
       </c>
       <c r="N16">
-        <v>17.7139642028878</v>
+        <v>11.9530283864093</v>
       </c>
       <c r="O16">
-        <v>20.02211044884623</v>
+        <v>13.30897865869506</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.95686615347846</v>
+        <v>21.80000301750667</v>
       </c>
       <c r="C17">
-        <v>12.61560191567823</v>
+        <v>11.9597604527269</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.0398088672498</v>
+        <v>9.880049594515079</v>
       </c>
       <c r="F17">
-        <v>34.76026427502805</v>
+        <v>25.5157581051946</v>
       </c>
       <c r="G17">
-        <v>25.72560800372277</v>
+        <v>21.69758267600263</v>
       </c>
       <c r="H17">
-        <v>13.41892770065264</v>
+        <v>7.979722905218154</v>
       </c>
       <c r="I17">
-        <v>21.38166611870059</v>
+        <v>12.38877100786851</v>
       </c>
       <c r="J17">
-        <v>7.36131629846108</v>
+        <v>5.457327380218701</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.99677279080856</v>
+        <v>8.769341308120957</v>
       </c>
       <c r="M17">
-        <v>16.27459496745387</v>
+        <v>14.11908139726761</v>
       </c>
       <c r="N17">
-        <v>17.72824984538584</v>
+        <v>11.98930290571728</v>
       </c>
       <c r="O17">
-        <v>20.03837251780254</v>
+        <v>13.24308897146477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.84646989993783</v>
+        <v>21.53300379537715</v>
       </c>
       <c r="C18">
-        <v>12.59538877427103</v>
+        <v>11.89402099469291</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.0484240268184</v>
+        <v>9.884692692864826</v>
       </c>
       <c r="F18">
-        <v>34.7602656191593</v>
+        <v>25.37477651799909</v>
       </c>
       <c r="G18">
-        <v>25.71895863542617</v>
+        <v>21.53568975510469</v>
       </c>
       <c r="H18">
-        <v>13.42702837747652</v>
+        <v>7.979245658012866</v>
       </c>
       <c r="I18">
-        <v>21.40170081401468</v>
+        <v>12.41565364429611</v>
       </c>
       <c r="J18">
-        <v>7.356519631002318</v>
+        <v>5.439323295477329</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.99377619595276</v>
+        <v>8.72472849594406</v>
       </c>
       <c r="M18">
-        <v>16.24620316754034</v>
+        <v>13.98464231437447</v>
       </c>
       <c r="N18">
-        <v>17.73662755863191</v>
+        <v>12.01054218347135</v>
       </c>
       <c r="O18">
-        <v>20.04816192024679</v>
+        <v>13.20646833265708</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.80891527318288</v>
+        <v>21.44186793689304</v>
       </c>
       <c r="C19">
-        <v>12.58853465573112</v>
+        <v>11.87168404262291</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.05137448394526</v>
+        <v>9.886347021529195</v>
       </c>
       <c r="F19">
-        <v>34.76040007420968</v>
+        <v>25.32724854290677</v>
       </c>
       <c r="G19">
-        <v>25.71685385523968</v>
+        <v>21.4810915277918</v>
       </c>
       <c r="H19">
-        <v>13.42980714355907</v>
+        <v>7.979191721694284</v>
       </c>
       <c r="I19">
-        <v>21.40855149757166</v>
+        <v>12.42497358109913</v>
       </c>
       <c r="J19">
-        <v>7.354892225462048</v>
+        <v>5.433212678167959</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.99278723652363</v>
+        <v>8.709627413580334</v>
       </c>
       <c r="M19">
-        <v>16.23660753881501</v>
+        <v>13.93888126225503</v>
       </c>
       <c r="N19">
-        <v>17.73949177663589</v>
+        <v>12.01779725894407</v>
       </c>
       <c r="O19">
-        <v>20.05155125969492</v>
+        <v>13.1942870868471</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.97721347656447</v>
+        <v>21.84907006076299</v>
       </c>
       <c r="C20">
-        <v>12.61933795662772</v>
+        <v>11.9718896405897</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.03823030923304</v>
+        <v>9.87922951414887</v>
       </c>
       <c r="F20">
-        <v>34.76032765869495</v>
+        <v>25.5419477244866</v>
       </c>
       <c r="G20">
-        <v>25.7269082550289</v>
+        <v>21.72764697761086</v>
       </c>
       <c r="H20">
-        <v>13.41744555590647</v>
+        <v>7.979862710355216</v>
       </c>
       <c r="I20">
-        <v>21.37799010871938</v>
+        <v>12.38390014672817</v>
       </c>
       <c r="J20">
-        <v>7.362202463252761</v>
+        <v>5.460652471925902</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.9973395539616</v>
+        <v>8.77759977054467</v>
       </c>
       <c r="M20">
-        <v>16.27985774132236</v>
+        <v>14.14384732914646</v>
       </c>
       <c r="N20">
-        <v>17.72671245684336</v>
+        <v>11.98540245041035</v>
       </c>
       <c r="O20">
-        <v>20.03659626833191</v>
+        <v>13.24997048287728</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.52995134809223</v>
+        <v>23.16634598766872</v>
       </c>
       <c r="C21">
-        <v>12.7220761691011</v>
+        <v>12.30290065938047</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.99639673957689</v>
+        <v>9.86114834008154</v>
       </c>
       <c r="F21">
-        <v>34.76939437762464</v>
+        <v>26.27719023427979</v>
       </c>
       <c r="G21">
-        <v>25.77086995511099</v>
+        <v>22.57046143154613</v>
       </c>
       <c r="H21">
-        <v>13.37841838902555</v>
+        <v>7.98981384963629</v>
       </c>
       <c r="I21">
-        <v>21.27999103737391</v>
+        <v>12.26166995354374</v>
       </c>
       <c r="J21">
-        <v>7.386528207082479</v>
+        <v>5.551786924811172</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.01440801254169</v>
+        <v>9.006086889740546</v>
       </c>
       <c r="M21">
-        <v>16.42628797681332</v>
+        <v>14.81528823474785</v>
       </c>
       <c r="N21">
-        <v>17.68569783758594</v>
+        <v>11.88108908024119</v>
       </c>
       <c r="O21">
-        <v>19.99156090865864</v>
+        <v>13.45242680859191</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.8812196063071</v>
+        <v>23.98962341672162</v>
       </c>
       <c r="C22">
-        <v>12.78861026374432</v>
+        <v>12.51480140721202</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.97078936025414</v>
+        <v>9.853809934539429</v>
       </c>
       <c r="F22">
-        <v>34.78224247841288</v>
+        <v>26.7675461894472</v>
       </c>
       <c r="G22">
-        <v>25.80716397621599</v>
+        <v>23.13136412834843</v>
       </c>
       <c r="H22">
-        <v>13.35478038539082</v>
+        <v>8.002299123710836</v>
       </c>
       <c r="I22">
-        <v>21.2194365636219</v>
+        <v>12.19428031360436</v>
       </c>
       <c r="J22">
-        <v>7.402246641242876</v>
+        <v>5.610520315496545</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.02687264872832</v>
+        <v>9.155303110241148</v>
       </c>
       <c r="M22">
-        <v>16.52271219279981</v>
+        <v>15.24090320753329</v>
       </c>
       <c r="N22">
-        <v>17.66032200773162</v>
+        <v>11.81639989347535</v>
       </c>
       <c r="O22">
-        <v>19.96601923486456</v>
+        <v>13.59642726179598</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.69468410967027</v>
+        <v>23.5536508537623</v>
       </c>
       <c r="C23">
-        <v>12.75315872159259</v>
+        <v>12.40212452134516</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.98429807304002</v>
+        <v>9.857308258219378</v>
       </c>
       <c r="F23">
-        <v>34.7747529983548</v>
+        <v>26.50496666232808</v>
       </c>
       <c r="G23">
-        <v>25.78710310215245</v>
+        <v>22.83111933866267</v>
       </c>
       <c r="H23">
-        <v>13.36722542200429</v>
+        <v>7.995072413866873</v>
       </c>
       <c r="I23">
-        <v>21.25143574699486</v>
+        <v>12.22905537456791</v>
       </c>
       <c r="J23">
-        <v>7.393874144377952</v>
+        <v>5.579251392429969</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.0201010345023</v>
+        <v>9.075686032674062</v>
       </c>
       <c r="M23">
-        <v>16.47118950535046</v>
+        <v>15.01497509632248</v>
       </c>
       <c r="N23">
-        <v>17.67373494860117</v>
+        <v>11.85059940319265</v>
       </c>
       <c r="O23">
-        <v>19.97929478465079</v>
+        <v>13.51848869667375</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.96801785513698</v>
+        <v>21.82690051669743</v>
       </c>
       <c r="C24">
-        <v>12.61764911206281</v>
+        <v>11.96640757547524</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.03894335591289</v>
+        <v>9.879598762888676</v>
       </c>
       <c r="F24">
-        <v>34.76029657494735</v>
+        <v>25.53010391146073</v>
       </c>
       <c r="G24">
-        <v>25.72631776512336</v>
+        <v>21.71405128719018</v>
       </c>
       <c r="H24">
-        <v>13.41811496915312</v>
+        <v>7.979797531074333</v>
       </c>
       <c r="I24">
-        <v>21.37965078464723</v>
+        <v>12.38609820908237</v>
       </c>
       <c r="J24">
-        <v>7.361801895776914</v>
+        <v>5.459149494339187</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.99708286091815</v>
+        <v>8.773866128263391</v>
       </c>
       <c r="M24">
-        <v>16.27747817671307</v>
+        <v>14.13265527446584</v>
       </c>
       <c r="N24">
-        <v>17.72740699710634</v>
+        <v>11.98716464995584</v>
       </c>
       <c r="O24">
-        <v>20.03739793988199</v>
+        <v>13.24685542984722</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.14472633733535</v>
+        <v>19.80096646399074</v>
       </c>
       <c r="C25">
-        <v>12.46916270655547</v>
+        <v>11.47880443720826</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.10534567641729</v>
+        <v>9.9220244970659</v>
       </c>
       <c r="F25">
-        <v>34.77451821680793</v>
+        <v>24.52412885745414</v>
       </c>
       <c r="G25">
-        <v>25.69335797387386</v>
+        <v>20.55684432123485</v>
       </c>
       <c r="H25">
-        <v>13.48102518523998</v>
+        <v>7.98741542713283</v>
       </c>
       <c r="I25">
-        <v>21.53293019728509</v>
+        <v>12.60443473911936</v>
       </c>
       <c r="J25">
-        <v>7.326461719972492</v>
+        <v>5.326299001968471</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.97795335533366</v>
+        <v>8.4491114841088</v>
       </c>
       <c r="M25">
-        <v>16.07233143282579</v>
+        <v>13.12687251063819</v>
       </c>
       <c r="N25">
-        <v>17.7914585453055</v>
+        <v>12.148745341038</v>
       </c>
       <c r="O25">
-        <v>20.11672879338586</v>
+        <v>13.00244394857563</v>
       </c>
     </row>
   </sheetData>
